--- a/SituationTemperature.xlsx
+++ b/SituationTemperature.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elias/Desktop/PFE/GitHub/PFE2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6139D8-7497-8F49-8C4A-1CA67AB8C412}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2D0FFEB-DB05-CE42-B40F-C4A9A873220E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="660" windowWidth="25040" windowHeight="14500" xr2:uid="{393C0312-5CB7-5140-9AAB-06B9406F0DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -74,6 +76,45 @@
   </si>
   <si>
     <t>Clim allumé</t>
+  </si>
+  <si>
+    <t>ou fenetre ouverte</t>
+  </si>
+  <si>
+    <t>circuit trop puissant</t>
+  </si>
+  <si>
+    <t>Situation</t>
+  </si>
+  <si>
+    <t>Pb de chauffage/ Clim trop élevé</t>
+  </si>
+  <si>
+    <t>Pb de chauffage / Climatisation</t>
+  </si>
+  <si>
+    <t>Pb de chauffage/Fenetre</t>
+  </si>
+  <si>
+    <t>Chauffage</t>
+  </si>
+  <si>
+    <t>eteint</t>
+  </si>
+  <si>
+    <t>allume</t>
+  </si>
+  <si>
+    <t>Regulateur</t>
+  </si>
+  <si>
+    <t>chaudiere</t>
+  </si>
+  <si>
+    <t>Capteur Gaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piece </t>
   </si>
 </sst>
 </file>
@@ -293,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -321,30 +362,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1604,13 +1692,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -1639,6 +1727,665 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>241780</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>147360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>549160</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>179320</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="11" name="Encre 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949347D6-FB23-5D40-83F5-35021DB79662}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6020280" y="1366560"/>
+            <a:ext cx="2783880" cy="2876760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="Encre 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949347D6-FB23-5D40-83F5-35021DB79662}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6004800" y="1351440"/>
+              <a:ext cx="2814480" cy="2907360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>332860</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>147920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504520</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45280</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="16" name="Encre 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E908382-8C78-2C43-859D-EF8489B6A66E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6111360" y="1570320"/>
+            <a:ext cx="2648160" cy="1319760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="Encre 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E908382-8C78-2C43-859D-EF8489B6A66E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6096240" y="1555200"/>
+              <a:ext cx="2678760" cy="1350360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>344360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>197400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>556400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>132640</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="27" name="Encre 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B41E6FA2-8269-4D41-AF9C-DD468F30291D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6948360" y="1416600"/>
+            <a:ext cx="212040" cy="341640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="27" name="Encre 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B41E6FA2-8269-4D41-AF9C-DD468F30291D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6939360" y="1407600"/>
+              <a:ext cx="229680" cy="359280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>186240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>546320</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>117160</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="28" name="Encre 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B524CA9-F1B3-3343-AFD0-427DC900DEDB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6975360" y="1405440"/>
+            <a:ext cx="174960" cy="337320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="28" name="Encre 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B524CA9-F1B3-3343-AFD0-427DC900DEDB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6966360" y="1396440"/>
+              <a:ext cx="192600" cy="354960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>456660</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>689220</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69360</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="31" name="Encre 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{782011EE-6D01-6646-B4C7-B52AB23F415C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7886160" y="368640"/>
+            <a:ext cx="232560" cy="310320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="31" name="Encre 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{782011EE-6D01-6646-B4C7-B52AB23F415C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7877520" y="359640"/>
+              <a:ext cx="250200" cy="327960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228860</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>105680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>164360</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="32" name="Encre 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B19C728-9B3E-3449-8ED0-9F00274EEF7C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4356360" y="3966480"/>
+            <a:ext cx="1670040" cy="58680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="32" name="Encre 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B19C728-9B3E-3449-8ED0-9F00274EEF7C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4347720" y="3957480"/>
+              <a:ext cx="1687680" cy="76320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>260</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>172080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>183140</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85000</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="35" name="Encre 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71758CE1-C30E-D842-A467-A6A37B43E849}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4127760" y="3829680"/>
+            <a:ext cx="182880" cy="319320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="35" name="Encre 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71758CE1-C30E-D842-A467-A6A37B43E849}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4119120" y="3820680"/>
+              <a:ext cx="200520" cy="336960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-01-21T14:36:47.025"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.08571" units="cm"/>
+      <inkml:brushProperty name="height" value="0.08571" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1494 6678 8027,'-35'-31'0,"1"5"0,13 15 0,-4-1 0,0-1 0,-3 2 0,-3-3 0,-1 4 0,-1-1 0,-3 2 0,-3 0 0,-6 1 0,-4 0 0,4 3 0,-1 3 0,1 1 0,-4 1 0,2 0 0,-5 1 0,5 1 0,-9 7 0,12 4 0,-9 5 0,4 4 0,6-3 0,-4 6 0,4 1 0,1 5 0,0 1 0,6 1 0,1 3 0,2-1 0,3 5 0,3-2 0,4 5 0,1 2 0,3-1 0,0 1 0,3-3 0,2 2 0,2-2 0,4-1 0,2 0 0,2-2 0,0 0 0,1-5 0,3 2 0,1 1 0,2-1 0,3 0 0,8 0 0,3-2 0,5 2 0,4 0 0,-1 0 0,3 0 0,-1-3 0,3 0 0,2-4 0,2 2 0,2-7 0,6 1 0,2-8 0,10 3 0,-6-6 0,6-2 0,-8-5 0,9-2 0,-2-3 0,2 1 0,1-2 0,5-1 0,-13 0 0,7 0 0,-7-3 0,4-5 0,-4-3 0,-1-11 0,-4 0 0,1-3 0,-4-3 0,-3-3 0,0-1 0,-5-4 0,-5 1 0,-2-7 0,-3 0 0,-2-1 0,-3 2 0,-4-3 0,-2 0 0,-2 0 0,-1 3 0,-3 2 0,-3 0 0,-1 6 0,-1-1 0,0 2 0,0 5 0,-1-3 0,-5 2 0,0-2 0,-8 2 0,-1-3 0,-3 1 0,-1-2 0,-3 0 0,2 1 0,-2-1 0,3 2 0,0 2 0,2 0 0,-2 2 0,0 2 0,-3-1 0,3 0 0,-4 0 0,1 1 0,-3 0 0,-2 1 0,0 1 0,-1 3 0,3-1 0,1 4 0,-1 0 0,0 2 0,0 0 0,3 3 0,0-3 0,1 1 0,-1-1 0,-1-1 0,4 1 0,0 2 0,2 1 0,3 3 0,1 2 0,3-1 0,-13-1 0,1-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2037">834 3599 8027,'-13'-32'0,"4"2"0,3 22 0,1-1 0,-3-2 0,-3 2 0,0 1 0,-3 2 0,3 1 0,-4 3 0,2-1 0,-7 2 0,-4 3 0,-5 4 0,1 5 0,-8 11 0,7 1 0,-5 7 0,1 0 0,0 3 0,0 0 0,9 0 0,-2 0 0,7 0 0,3 0 0,5 0 0,2 0 0,1 0 0,0 0 0,3 0 0,1-2 0,4-1 0,0 0 0,0 3 0,0 0 0,1 0 0,2 0 0,2 5 0,6 3 0,3-5 0,5 2 0,2-2 0,4 3 0,0-3 0,0-6 0,-1-3 0,1-5 0,0 0 0,0-5 0,1 0 0,1-6 0,0 0 0,3-2 0,1-1 0,4-1 0,1-1 0,2-3 0,-2-3 0,3 0 0,0 0 0,0-1 0,0-1 0,0-7 0,-3-4 0,0-7 0,-3-2 0,-4-1 0,-1-2 0,-4-6 0,-5-2 0,-1-3 0,-7 0 0,0-2 0,-2-3 0,-5 0 0,-1 0 0,-2-1 0,-1 5 0,0 1 0,-2 3 0,-4 3 0,0 1 0,-8 4 0,0 0 0,-2-3 0,-1 3 0,1-3 0,-1 0 0,1 0 0,-3 1 0,-1 2 0,3 1 0,0 2 0,2 2 0,-7 3 0,0 2 0,-3 0 0,0 1 0,0 4 0,-3-1 0,-1 2 0,-4 1 0,0 2 0,0 1 0,0 3 0,0-1 0,3 2 0,3 1 0,6 0 0,4 0 0,-14 4 0,0 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11630">4018 831 8027,'-5'-22'0,"2"-2"0,3 7 0,0-5 0,0-8 0,0-4 0,0-8 0,0-2 0,0-2 0,0-4 0,1 2 0,1 1 0,3 0 0,3 6 0,0 1 0,1 7 0,-2 1 0,-2 2 0,3 2 0,-3 3 0,3 0 0,-1 1 0,-1 2 0,-1 4 0,-1 3 0,-2 4 0,-2 2 0,4 5 0,1 4 0,3 9 0,0 11 0,0 10 0,2 8 0,1 9 0,2 3 0,3 8 0,-2 3 0,0 2 0,-2-7 0,2-1 0,1-2 0,-4 2 0,3-4 0,-3-7 0,0-7 0,-3-11 0,0-3 0,-1-6 0,-1-6 0,1-2 0,-1-1 0,1-2 0,1-1 0,1-3 0,-1 1 0,1-2 0,2-1 0,2-3 0,3-5 0,1-9 0,3-16 0,-1-1 0,1-7 0,3-9 0,-4-1 0,4-3 0,-1 6 0,0-1 0,-3 3 0,3-6 0,-4 6 0,2 5 0,-4 5 0,-2 8 0,1 5 0,-4 10 0,0 1 0,-3 7 0,0 2 0,-1 9 0,0 9 0,-2 10 0,2 8 0,-3 8 0,2 0 0,-4 1 0,1 5 0,-3-4 0,0 1 0,0-4 0,0-4 0,0-4 0,0-7 0,0-8 0,0-3 0,0-4 0,0-1 0,1-2 0,2-2 0,2-1 0,3-4 0,0 0 0,0 0 0,1-3 0,-1-5 0,4-10 0,2-15 0,4-5 0,1 0 0,4-14 0,-1 5 0,-3-2 0,0 2 0,-1 1 0,4-1 0,-2 3 0,-4 8 0,-1 5 0,-2 8 0,-3 9 0,1 4 0,-1 3 0,-2 4 0,0 4 0,0 1 0,1 11 0,-1 9 0,1 4 0,1 7 0,1 4 0,4 2 0,-6 5 0,2 0 0,-1 3 0,1-3 0,-2-4 0,3-4 0,-4-6 0,-2-4 0,-1-5 0,-2-5 0,-1-4 0,0-1 0,1-6 0,1-1 0,4-4 0,1-12 0,-1-7 0,0-15 0,1-10 0,0-5 0,2-3 0,-2 4 0,2-2 0,2 1 0,-1-1 0,1 5 0,2 3 0,-4 6 0,0 5 0,-3 9 0,1 7 0,-1 6 0,0 5 0,0 5 0,1 2 0,3 17 0,1 13 0,3 13 0,0 9 0,1 6 0,-1 5 0,-3-8 0,-2 2 0,-2-5 0,0 0 0,-1-7 0,-3-7 0,-3-11 0,-1-6 0,-1-8 0,0-3 0,0-5 0,4-3 0,-2-15 0,3-9 0,-2-15 0,2-8 0,1 3 0,2-8 0,0 2 0,1-4 0,-1 1 0,0 4 0,0 6 0,1 6 0,-1 4 0,0 10 0,0 5 0,1 3 0,-1 5 0,4 1 0,2 4 0,3 0 0,5 0 0,7 6 0,10 5 0,5 3 0,3 11 0,-1-3 0,6 8 0,-11-8 0,11 6 0,-8-8 0,1-1 0,-2-1 0,-4-5 0,-6-2 0,-1-3 0,-2-3 0,-1-1 0,-4-4 0,-1 0 0,1 0 0,1 0 0,1 0 0,0-4 0,3-1 0,1-2 0,2-2 0,7-1 0,-2 2 0,16-6 0,-7 4 0,7-2 0,2 1 0,1-2 0,4 3 0,-1-3 0,-4 5 0,-1 0 0,-4 2 0,7 1 0,-11-1 0,-3 3 0,-6 0 0,-8 3 0,-5 0 0,-6 0 0,-5 0 0,-3 0 0,-9 0 0,-2 4 0,-6 1 0,3 3 0,0 1 0,0 2 0,-1 5 0,2 6 0,0 6 0,-3 3 0,2 4 0,-1 3 0,1 6 0,1 8 0,-3 3 0,0 3 0,0-3 0,-3 7 0,4 4 0,-1 5 0,-2 2 0,3 2 0,-1 2 0,-2-1 0,5 4 0,-1-3 0,3 3 0,0-4 0,0 2 0,0 0 0,0 1 0,0 3 0,0 1 0,0 0 0,0 2 0,0 0 0,0 1 0,0 0 0,3-4 0,-1 1 0,4-2 0,-3-4 0,-1 3 0,-2-3 0,0 1 0,0-1 0,0-1 0,0 1 0,0 1 0,1 0 0,2 0 0,-2-1 0,2 0 0,-1-2 0,-1-6 0,3 1 0,1-7 0,-4-2 0,2 2 0,-2-2 0,-1-1 0,0-3 0,0 7 0,0-4 0,0 1 0,1 1 0,2 4 0,-1 0 0,2 1 0,0 2 0,2-5 0,0-3 0,1 8 0,1-5 0,1 5 0,-1 0 0,0-1 0,0 3 0,1 1 0,-1 2 0,-1 1 0,0-5 0,-2-6 0,-3 2 0,2-14 0,-4 8 0,0 2 0,0-2 0,0-2 0,0 5 0,0-17 0,0 8 0,0-2 0,0 0 0,0-2 0,0-4 0,0 1 0,0-6 0,0 0 0,-1-5 0,-2-1 0,-1-1 0,-1-1 0,-3 0 0,3 0 0,-2 3 0,-2 0 0,4 0 0,-1-3 0,2 2 0,-3 1 0,2-1 0,0 2 0,-1-2 0,0 1 0,0 0 0,0 1 0,-1 0 0,2 3 0,-2 0 0,3 1 0,-2 1 0,3-1 0,-2 0 0,3-4 0,-1-4 0,1-2 0,0-6 0,1 1 0,-2-7 0,1 0 0,0-2 0,0-2 0,0-1 0,1-2 0,1-4 0,0 0 0,0 1 0,0-1 0,-4-3 0,0-2 0,-7-3 0,-2 0 0,-2 0 0,-7 0 0,-10 0 0,-6 0 0,0 0 0,-11-1 0,0-2 0,-7-6 0,-4-4 0,-1-6 0,-3-3 0,-3-2 0,-2 1 0,-3 0 0,1 2 0,-1 0 0,1 4 0,3 2 0,1 4 0,1 5 0,0 0 0,-3 4 0,0 0 0,-2-2 0,4 1 0,0 2 0,2 0 0,3 1 0,-4-1 0,15-1 0,-4-1 0,1 1 0,1 1 0,0 1 0,2 0 0,4 0 0,-6 0 0,12 0 0,-6-2 0,-2-1 0,2-1 0,0 1 0,2 2 0,-3-2 0,1-1 0,1 2 0,-1-3 0,0 3 0,3-1 0,-3 2 0,3 1 0,0 0 0,3 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,3 0 0,-2 0 0,0 0 0,-5 0 0,2 0 0,-3 0 0,-6 0 0,-4 0 0,1 0 0,5 4 0,2-3 0,0 3 0,-2-1 0,-9 1 0,5 1 0,-2 0 0,11-3 0,-3 1 0,-1-1 0,2-2 0,1 0 0,-1 0 0,4 0 0,0 1 0,3 2 0,-1-2 0,-2 2 0,2 0 0,-2 0 0,1-1 0,-1 2 0,0 2 0,0-1 0,3 0 0,0 0 0,-1 1 0,2-1 0,1-2 0,1-1 0,1 0 0,3 0 0,0 1 0,1-1 0,3-2 0,2 0 0,3 0 0,1 0 0,2 0 0,-1 0 0,4 0 0,1 0 0,-3 0 0,2 0 0,-1-1 0,1-1 0,0-2 0,-3-2 0,3 3 0,-3 3 0,3-3 0,-3 0 0,3 1 0,-3 2 0,2 0 0,-2 0 0,0-1 0,-2-2 0,-1-2 0,0-3 0,-1 0 0,0 0 0,-2 3 0,1-2 0,2 2 0,0 0 0,4 2 0,-2 0 0,4 0 0,-3 1 0,3 2 0,-1-1 0,4-2 0,2 2 0,0-2 0,3 0 0,-3 0 0,4 0 0,-1 3 0,2-3 0,1 0 0,0 1 0,-1 2 0,4-3 0,-1 0 0,-3-10 0,15 10 0,0-19 0,19 8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14266">815 4677 8027,'-14'-19'0,"6"11"0,5 11 0,3 5 0,0 0 0,0 4 0,0 2 0,0 0 0,0 2 0,0 0 0,0 6 0,0 4 0,0 7 0,0 2 0,0 6 0,-3 0 0,1 6 0,-2-4 0,1 1 0,2-2 0,-1-1 0,1-3 0,1-2 0,0-6 0,0-3 0,0-1 0,0-1 0,0 0 0,0-1 0,0 1 0,0-3 0,0 0 0,0-3 0,0 3 0,0-2 0,0 2 0,0-3 0,0 3 0,0-3 0,0 3 0,0 0 0,0 3 0,0 1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-4 0,0 2 0,0-2 0,0 2 0,0-3 0,0 0 0,0 0 0,0 2 0,0-1 0,0-1 0,0 0 0,0 2 0,0-2 0,0 0 0,0-3 0,0 0 0,0-4 0,0-2 0,0 2 0,0-3 0,0-1 0,0-2 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 11 0,0-8 0,0 9 0,0-12 0,-4-3 0,3 2 0,-3-3 0,4 5 0,0-1 0,0 0 0,0-3 0,0-2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-01-21T14:37:07.129"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.08571" units="cm"/>
+      <inkml:brushProperty name="height" value="0.08571" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9 3666 8027,'-5'-41'0,"3"14"0,1 12 0,1 7 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,3 0 0,-2-1 0,2-1 0,-2-1 0,3-4 0,-4 2 0,4 0 0,-4 2 0,1 2 0,2 1 0,-2-1 0,2 1 0,1 0 0,-3 0 0,5-1 0,-2 1 0,1 0 0,-3 0 0,4-1 0,-1 0 0,4-2 0,-2 1 0,-2-4 0,3 4 0,-3-1 0,2 2 0,-2 1 0,2 0 0,-5-1 0,5 1 0,-2 0 0,3 0 0,0-1 0,0 1 0,0-4 0,1 2 0,-1-4 0,0 4 0,0-2 0,1 1 0,-1 0 0,0 0 0,0 3 0,-3 0 0,2 0 0,-1-1 0,1 1 0,2 0 0,-1-3 0,0 0 0,0 0 0,1 2 0,-1 1 0,0 0 0,0 3 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 5 0,-1-2 0,0 2 0,0 1 0,1-3 0,-1 0 0,0 1 0,0 2 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,1 1 0,-1 3 0,0 3 0,-3 0 0,-1 1 0,-4-8 0,0-6 0,-4-5 0,-2-4 0,0 3 0,0-3 0,0 0 0,3-6 0,0-2 0,3-5 0,0-2 0,-1-5 0,-1-2 0,1-2 0,-3-6 0,4 0 0,0-3 0,0 1 0,0 0 0,0-3 0,0 2 0,0 2 0,0-2 0,0 4 0,0-1 0,0-1 0,0 1 0,0 0 0,0 2 0,3 2 0,0 1 0,0-1 0,-1 3 0,1-1 0,0 1 0,-3 4 0,0 0 0,0 0 0,0 4 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0-4 0,0-1 0,0-2 0,0 2 0,0-1 0,0 1 0,0-3 0,0 3 0,0-2 0,0-1 0,0-2 0,0-1 0,0-1 0,0-2 0,0-1 0,0-2 0,0 1 0,0 1 0,0 1 0,0 2 0,0 3 0,0 3 0,-3 2 0,0 2 0,-1 3 0,2 3 0,1 1 0,-2 2 0,2-1 0,1 1 0,0 1 0,0-3 0,0 6 0,0-3 0,0 1 0,0 1 0,0 2 0,0 1 0,0-1 0,0 2 0,0-1 0,0 4 0,0-5 0,0 4 0,0-1 0,0-1 0,0 4 0,0 0 0,0 3 0,0-3 0,0 0 0,0 0 0,-3 3 0,1-1 0,3 5 0,3 1 0,4 6 0,1-1 0,0 3 0,2 2 0,2-4 0,4 1 0,2-4 0,3 3 0,6-1 0,2 0 0,7-1 0,4-1 0,1 3 0,5 0 0,0 2 0,2-2 0,7 3 0,-3-4 0,9 4 0,-15-4 0,13 1 0,-13-3 0,10 0 0,-10 0 0,2 0 0,-2 0 0,1 0 0,-4 0 0,-1 0 0,-2 0 0,-2 0 0,0 0 0,-3 0 0,2 0 0,-2 0 0,1 0 0,-1 0 0,-5 0 0,2 0 0,-6 0 0,1 0 0,-5-3 0,-1 1 0,-3-2 0,3 1 0,-3 2 0,0-1 0,1 1 0,-1 1 0,4-3 0,-1 0 0,2 1 0,1-1 0,0 0 0,-1 0 0,1 3 0,-3-3 0,0 1 0,0-1 0,3 3 0,-1-1 0,-2-2 0,2 1 0,-2-3 0,1 3 0,2-2 0,0 1 0,0-2 0,-1 1 0,1 1 0,-3-1 0,-1 1 0,0 2 0,1-1 0,0-1 0,0 2 0,0-2 0,0 0 0,2 0 0,-2-3 0,0 4 0,-2-2 0,2 1 0,-4 2 0,1-1 0,-4-2 0,-1 1 0,-4 0 0,1 3 0,-2 0 0,0 0 0,2 0 0,-2 0 0,2 0 0,2 0 0,1 0 0,1 0 0,2 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,-2 0 0,0 0 0,-2 0 0,2 0 0,1 1 0,-4 2 0,4-1 0,-2 3 0,3-2 0,0 3 0,1-4 0,-3 4 0,-1-3 0,0 2 0,1-2 0,1 1 0,-4-2 0,0-1 0,-3 2 0,0-2 0,1-1 0,-1 3 0,0-1 0,0 1 0,0-3 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,4 4 0,-21 11 0,-2 8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5926">1412 3344 8027,'-13'4'0,"1"0"0,4-4 0,0 0 0,0 0 0,-1 0 0,1 1 0,0 1 0,0 0 0,-1 0 0,1 3 0,0-3 0,0 3 0,-1 1 0,1 2 0,2 0 0,-2 0 0,-1 1 0,-5 3 0,4 0 0,-2 5 0,0 0 0,-2-4 0,3 1 0,0-4 0,3 1 0,2-2 0,1 0 0,3-1 0,-2 0 0,3-1 0,-2-1 0,2 1 0,-6-6 0,3 3 0,-5-4 0,1 0 0,0 0 0,0 4 0,-1-4 0,8 4 0,5-4 0,7 0 0,0 0 0,-3 0 0,4-1 0,2-2 0,2 2 0,0-5 0,2 1 0,1-4 0,-1 4 0,3 0 0,-1 2 0,3-4 0,-3 5 0,2-3 0,5 3 0,-1-2 0,2 1 0,12 1 0,4-4 0,5 4 0,-2-4 0,-3 3 0,3-2 0,-1 2 0,9-2 0,-3 0 0,3-1 0,-4 2 0,2 1 0,-2 2 0,1-2 0,-4 3 0,2 0 0,-3 0 0,3 0 0,-3 0 0,-2 0 0,0 0 0,3 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-4 0 0,3 0 0,-3 0 0,0 0 0,-3 0 0,-1 0 0,-1 0 0,0 2 0,-3 1 0,3 3 0,-3-3 0,-2 2 0,0-3 0,0 4 0,1-2 0,1 0 0,0-2 0,-3 1 0,-1-2 0,-2-1 0,5 0 0,-2 0 0,2 3 0,-2-1 0,0 4 0,0-3 0,3 0 0,-1 0 0,5-2 0,-2 2 0,3-1 0,0-1 0,0 2 0,0 0 0,-3-3 0,5 0 0,-2 0 0,3 1 0,1 2 0,-1-2 0,3 5 0,2-2 0,-2 2 0,1 0 0,2-3 0,-3 0 0,-1-3 0,-2 3 0,3-1 0,-3 1 0,3-3 0,-4 1 0,1 2 0,1-2 0,-1 1 0,1 2 0,-2 0 0,1 0 0,3-1 0,-3 3 0,3-2 0,-3 2 0,3 0 0,-3-3 0,2 3 0,-2 0 0,1 0 0,-1 0 0,-5 0 0,-1-3 0,-3 0 0,-2-3 0,-1 0 0,-1 0 0,-4 0 0,0 0 0,0 0 0,0 0 0,3 0 0,0 0 0,3 0 0,1 0 0,2 0 0,-5 0 0,2 0 0,-4-3 0,1 0 0,-4-2 0,-1 2 0,-2-3 0,-3 4 0,2-5 0,-2 3 0,1-1 0,-2-2 0,3 1 0,-1 2 0,1-2 0,2 2 0,-2-2 0,2 1 0,1 3 0,-3 1 0,0-2 0,-4 1 0,1-1 0,-1 3 0,-2-3 0,2 2 0,1 1 0,-1 0 0,4 0 0,-2-3 0,2 0 0,-3 1 0,2 2 0,-1 0 0,0-3 0,-1 0 0,0 0 0,-1 0 0,0 1 0,-2-4 0,3 4 0,1-4 0,3 4 0,-1 0 0,-1 1 0,1 1 0,-1 0 0,1 0 0,-2 0 0,-3 0 0,-2 0 0,0 0 0,-1 0 0,-4 0 0,1 0 0,-2 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,2 0 0,-1 0 0,1 0 0,1 0 0,-1 0 0,0 0 0,-3 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,-3 3 0,2-2 0,-2 10 0,3-2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-01-21T14:37:49.446"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">588 949 24575,'-5'-15'0,"-1"-1"0,-13-15 0,-1-2 0,-7-7 0,-1-10 0,0 7 0,-2-16 0,3 17 0,-2-8 0,4 17 0,-1-5 0,7 13 0,-4-6 0,10 8 0,-4 0 0,5-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,-5 0 0,5 0 0,-5-1 0,5 1 0,1 0 0,-6 0 0,4 0 0,-4 0 0,7 5 0,-2-3 0,2 9 0,0-3 0,0 5 0,4 0 0,-2 5 0,7 0 0,-4 5 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-01-21T14:37:55.305"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 936 24575,'0'-15'0,"0"5"0,0-12 0,0 11 0,5-11 0,2 5 0,4-6 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,2-8 0,-1-1 0,1-1 0,0-6 0,4 14 0,-3-13 0,3 13 0,0-6 0,-4 8 0,4-8 0,-6 12 0,1-10 0,-1 11 0,6-5 0,-5 0 0,4 6 0,-5-5 0,0 5 0,0 0 0,0-5 0,-1 11 0,0-5 0,1 0 0,-2 5 0,2-5 0,-2 11 0,1-4 0,0 4 0,-5-5 0,4 0 0,-8 1 0,7 3 0,-7-3 0,8 4 0,-8-5 0,8 5 0,-8-4 0,7 4 0,-7-4 0,3 4 0,-4 1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-01-21T14:37:59.970"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">86 3 24575,'0'1'0,"0"7"0,-5 12 0,8 3 0,7 17 0,11-5 0,7 14 0,0 1 0,18 5 0,-2 10 0,8 12-520,-2-7 520,-6 7 0,7-8 0,-2-11 0,-9-4 0,-6-19 0,-15-4 0,-3-14 0,-6-2 0,0-9 0,-5-2 0,0-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1190">7 730 24575,'0'-14'0,"0"-3"0,0 0 0,0-12 0,0 9 0,-6-18 0,15 13 0,-8-6 0,16 8 0,-1 0 0,2 0 0,7-8 0,-2 6 0,12-16 0,-9 15 0,15-9 0,-15 4 0,5 4 0,2-5 0,-14 14 0,10-5 0,-18 12 0,4-5 0,-5 6 0,0 0 0,-1 5 0,1-4 0,0 8 0,-1-8 0,1 4 0,-1 0 0,-4-3 0,4 7 0,-4-8 0,5 8 0,-1-8 0,0 8 0,1-8 0,-1 8 0,1-7 0,0 6 0,-1-6 0,0 3 0,-3-5 0,2 5 0,-7-4 0,3 5 0,-4-2 0,0 2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-01-21T14:38:59.903"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4639 161 24575,'-19'0'0,"-9"0"0,-38 0 0,-3 0 0,15 0 0,-3 0-470,6 0 0,0 0 470,-6 0 0,-1 0-618,-5 0 0,-3 0 618,-8 0 0,-1 0 0,1 0 0,-3 0-1247,-20 1 1,-3-2 1246,6-10 0,-1 0 0,28 8 0,-2 3 0,0-3 0,-4-7 0,0-2 0,0 1 0,4 5 0,1 2 0,0 0 0,-1 0 0,1 0 0,-1-2 0,1-1 0,0-1 0,4 2-556,-8 4 0,4 2 556,-11-6 0,1 1 0,18 5 0,0 0 0,-13-4 0,-1-1 0,7 4 0,2 0 0,-1-4 0,3 0 67,11 5 0,2 0-67,-49-7 0,13 5 0,11-6 0,2 8 1189,12 0-1189,9 0 2526,2 0-2526,10 0 1404,-1 0-1404,9 0 528,-7 0-528,14 0 0,-6 0 0,8 0 0,0 0 0,-8 0 0,6 0 0,-6 0 0,8 0 0,-8 0 0,6 0 0,-5 0 0,6 0 0,1 0 0,0 0 0,-10 0 0,7 0 0,-2 0 0,7 0 0,4 0 0,-7 0 0,7 0 0,-4 0 0,9 0 0,-3 0 0,5 0 0,-6 0 0,5 0 0,-5 0 0,2 0 0,3 0 0,-3 0 0,4 0 0,0 0 0,5 0 0,1 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-01-21T14:39:43.280"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7 33 24575,'0'13'0,"0"13"0,0-13 0,11 24 0,4-10 0,5 5 0,5 7 0,-6-14 0,1 13 0,4-5 0,-4 7 0,5-8 0,-4 7 0,2-7 0,-2 9 0,0-1 0,3-8 0,-10 7 0,3-14 0,2 13 0,-6-13 0,5 6 0,-7-14 0,0 4 0,0-4 0,-1 0 0,2 5 0,-2-11 0,0 5 0,0-7 0,-5 1 0,4 0 0,-8-9 0,3 2 0,-4-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1443">1 887 24575,'0'-9'0,"0"5"0,0-16 0,0 5 0,0 3 0,0-9 0,5 3 0,0 1 0,12-4 0,-6 9 0,5-9 0,-5 3 0,5 0 0,-3-3 0,4 3 0,-1 0 0,-3-4 0,9 4 0,-4 0 0,-1 2 0,4-1 0,-10 6 0,6-11 0,-1 10 0,-5-4 0,6 0 0,-7 4 0,0-3 0,0 5 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 5 0,0-4 0,-1 4 0,-4-5 0,4 0 0,-8 1 0,8-1 0,-8 0 0,3 0 0,1-5 0,-4 3 0,10-9 0,-10 9 0,8-3 0,-8 5 0,4-6 0,-5 5 0,4-5 0,-3 6 0,3 1 0,-4-1 0,0 0 0,0 1 0,0-1 0,0 1 0,4-1 0,-2 0 0,2 1 0,0-1 0,-3 1 0,3-1 0,-4 1 0,0 3 0,0 2 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1938,20 +2685,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A52E18-4136-7D40-BA8F-96221433E90B}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E8" sqref="D8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" customWidth="1"/>
-    <col min="5" max="5" width="30" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="30" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1961,14 +2709,20 @@
       <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43802.166666435187</v>
       </c>
@@ -1979,13 +2733,19 @@
         <v>9</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H2" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43802.208333159724</v>
       </c>
@@ -1995,10 +2755,14 @@
       <c r="C3" s="11">
         <v>9</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43802.249999884261</v>
       </c>
@@ -2010,13 +2774,19 @@
         <v>15</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43802.291666666664</v>
       </c>
@@ -2027,40 +2797,57 @@
         <f>B5+2</f>
         <v>15</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="27"/>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43802.333333333336</v>
       </c>
       <c r="B6" s="5">
         <v>13</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="24">
         <v>21</v>
       </c>
       <c r="D6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="F6" s="27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H6" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43802.375</v>
       </c>
       <c r="B7" s="5">
         <v>13</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="25">
         <v>21</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="27"/>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43802.416666666664</v>
       </c>
@@ -2071,13 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="F8" s="27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43802.458333333336</v>
       </c>
@@ -2087,10 +2880,17 @@
       <c r="C9" s="17">
         <v>28</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="28"/>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43802.5</v>
       </c>
@@ -2101,13 +2901,19 @@
         <v>16</v>
       </c>
       <c r="D10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43802.541666666664</v>
       </c>
@@ -2117,70 +2923,94 @@
       <c r="C11" s="11">
         <v>16</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="27"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43802.583333333336</v>
       </c>
       <c r="B12" s="2">
         <v>22</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="24">
         <v>21</v>
       </c>
       <c r="D12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="F12" s="27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H12" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43802.625</v>
       </c>
       <c r="B13" s="2">
         <v>22</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="25">
         <v>21</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="27"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43802.666666666664</v>
       </c>
       <c r="B14" s="2">
         <v>22</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="22">
         <v>23</v>
       </c>
       <c r="D14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="F14" s="27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H14" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43802.708333333336</v>
       </c>
       <c r="B15" s="2">
         <v>22</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="23">
         <v>23</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="25"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="27"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43802.750000578701</v>
       </c>
@@ -2191,13 +3021,19 @@
         <v>27</v>
       </c>
       <c r="D16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="F16" s="27" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43802.791666666664</v>
       </c>
@@ -2207,10 +3043,14 @@
       <c r="C17" s="17">
         <v>27</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="28"/>
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43802.833333333336</v>
       </c>
@@ -2221,13 +3061,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43802.875</v>
       </c>
@@ -2237,40 +3083,54 @@
       <c r="C19" s="11">
         <v>13</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="25"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="27"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43802.916666666664</v>
       </c>
       <c r="B20" s="8">
         <v>28</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="24">
         <v>22</v>
       </c>
       <c r="D20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="F20" s="27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H20" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43802.958333333336</v>
       </c>
       <c r="B21" s="8">
         <v>28</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="25">
         <v>22</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="27"/>
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43803</v>
       </c>
@@ -2281,13 +3141,19 @@
         <v>26</v>
       </c>
       <c r="D22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="F22" s="27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H22" s="27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43803.041666666664</v>
       </c>
@@ -2297,10 +3163,14 @@
       <c r="C23" s="15">
         <v>26</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="27"/>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43803.083333333336</v>
       </c>
@@ -2311,13 +3181,19 @@
         <v>30</v>
       </c>
       <c r="D24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="F24" s="27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43803.124999826388</v>
       </c>
@@ -2327,17 +3203,16 @@
       <c r="C25" s="17">
         <v>30</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-    </row>
-    <row r="26" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="D25" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="28"/>
+      <c r="H25" s="28"/>
+    </row>
+    <row r="26" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
+  <mergeCells count="36">
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
@@ -2345,19 +3220,52 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
   </mergeCells>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"allume"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"eteint"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D25">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"allume"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"eteint"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2570,4 +3478,43 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4918B130-C3DF-094A-801C-2581E06848C1}">
+  <dimension ref="E3:J22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>